--- a/브랜딩_기대효과_목록.xlsx
+++ b/브랜딩_기대효과_목록.xlsx
@@ -17,6 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'시청각기록물 목록'!$A$1:$AA$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -825,12 +826,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1588,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -3095,7 +3098,6 @@
     <hyperlink ref="A47" r:id="rId92"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId93"/>
 </worksheet>
 </file>
 
@@ -3103,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4247,6 +4249,5 @@
     <hyperlink ref="T2:T20" r:id="rId39" display="05_연구 및 집필"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
--- a/브랜딩_기대효과_목록.xlsx
+++ b/브랜딩_기대효과_목록.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="48" windowWidth="23256" windowHeight="13176" activeTab="2"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="25515" windowHeight="11850" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Extensions" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'수집기록물 목록'!$A$1:$S$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'시청각기록물 목록'!$A$1:$AA$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'시청각기록물 목록'!$A$1:$S$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="286">
   <si>
     <t>Name</t>
   </si>
@@ -802,19 +801,97 @@
   </si>
   <si>
     <t>Image 사이즈</t>
+  </si>
+  <si>
+    <t>image/jpeg</t>
+  </si>
+  <si>
+    <t>257 kB</t>
+  </si>
+  <si>
+    <t>1024x768</t>
+  </si>
+  <si>
+    <t>242 kB</t>
+  </si>
+  <si>
+    <t>1024x553</t>
+  </si>
+  <si>
+    <t>205 kB</t>
+  </si>
+  <si>
+    <t>196 kB</t>
+  </si>
+  <si>
+    <t>450 kB</t>
+  </si>
+  <si>
+    <t>1024x683</t>
+  </si>
+  <si>
+    <t>506 kB</t>
+  </si>
+  <si>
+    <t>425 kB</t>
+  </si>
+  <si>
+    <t>557 kB</t>
+  </si>
+  <si>
+    <t>294 kB</t>
+  </si>
+  <si>
+    <t>332 kB</t>
+  </si>
+  <si>
+    <t>562 kB</t>
+  </si>
+  <si>
+    <t>272 kB</t>
+  </si>
+  <si>
+    <t>1024x576</t>
+  </si>
+  <si>
+    <t>2.6 MB</t>
+  </si>
+  <si>
+    <t>4032x3024</t>
+  </si>
+  <si>
+    <t>3.6 MB</t>
+  </si>
+  <si>
+    <t>489 kB</t>
+  </si>
+  <si>
+    <t>1024x684</t>
+  </si>
+  <si>
+    <t>371 kB</t>
+  </si>
+  <si>
+    <t>563 kB</t>
+  </si>
+  <si>
+    <t>1024x681</t>
+  </si>
+  <si>
+    <t>409 kB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="#,##0\ &quot;Bytes&quot;"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;MB&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;KB&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00%"/>
+    <numFmt numFmtId="176" formatCode="#,##0\ &quot;Bytes&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00\ &quot;MB&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;KB&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,13 +902,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -867,13 +937,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -892,6 +955,38 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -928,89 +1023,81 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="1"/>
@@ -1101,7 +1188,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1136,7 +1222,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1312,12 +1397,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -1327,99 +1412,100 @@
     <col min="6" max="6" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>12.7</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>12.7</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>0.16400000000000001</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>20.399999999999999</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>20.5</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>44.1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>44.1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>0.57099999999999995</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>16</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -1430,7 +1516,7 @@
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1453,17 +1539,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2">
@@ -1473,37 +1559,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>18.600000000000001</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>18.600000000000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1.3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>1.3</v>
       </c>
       <c r="E4">
@@ -1513,17 +1599,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>3.8</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>3.8</v>
       </c>
       <c r="E5">
@@ -1533,17 +1619,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>155.9</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>160</v>
       </c>
       <c r="E6">
@@ -1553,27 +1639,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>53.4</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>53.5</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>21</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
@@ -1588,1421 +1675,1422 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="103.5546875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="32" customWidth="1"/>
-    <col min="6" max="6" width="74.21875" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="31" customWidth="1"/>
-    <col min="9" max="10" width="22.5546875" style="32" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" style="31" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" style="31" customWidth="1"/>
-    <col min="13" max="13" width="18" style="31" customWidth="1"/>
+    <col min="1" max="1" width="103.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="74.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="18" customWidth="1"/>
+    <col min="9" max="10" width="22.5703125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="18" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:13" s="11" customFormat="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:13" collapsed="1">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="35" t="s">
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" collapsed="1">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="32" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="31" t="s">
+      <c r="I3" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="L3" s="30"/>
-    </row>
-    <row r="4" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="35" t="s">
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" collapsed="1">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="32" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" s="32" t="s">
+      <c r="I4" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="L4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="35" t="s">
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" collapsed="1">
+      <c r="A5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="32" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="35" t="s">
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" collapsed="1">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="29" t="s">
+      <c r="B6" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J6" s="32" t="s">
+      <c r="I6" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="35" t="s">
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" collapsed="1">
+      <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" s="32" t="s">
+      <c r="I7" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="L7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="35" t="s">
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" collapsed="1">
+      <c r="A8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="29" t="s">
+      <c r="B8" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="32" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8" s="31" t="s">
+      <c r="I8" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="L8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="35" t="s">
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" collapsed="1">
+      <c r="A9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="29" t="s">
+      <c r="B9" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="32" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="K9" s="31" t="s">
+      <c r="I9" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L9" s="30"/>
-    </row>
-    <row r="10" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="35" t="s">
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" collapsed="1">
+      <c r="A10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="32" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="K10" s="31" t="s">
+      <c r="I10" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="35" t="s">
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" collapsed="1">
+      <c r="A11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="K11" s="31" t="s">
+      <c r="I11" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="L11" s="30"/>
-    </row>
-    <row r="12" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="35" t="s">
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" collapsed="1">
+      <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C12" s="29" t="s">
+      <c r="B12" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="32" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="I12" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" s="32" t="s">
+      <c r="I12" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="L12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="35" t="s">
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" collapsed="1">
+      <c r="A13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="29" t="s">
+      <c r="B13" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="32" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="I13" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J13" s="32" t="s">
+      <c r="I13" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="35" t="s">
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" collapsed="1">
+      <c r="A14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="29" t="s">
+      <c r="B14" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="32" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="I14" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="K14" s="31" t="s">
+      <c r="I14" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="35" t="s">
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" collapsed="1">
+      <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="32" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J15" s="32" t="s">
+      <c r="I15" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="16" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="35" t="s">
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" collapsed="1">
+      <c r="A16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="29" t="s">
+      <c r="B16" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="32" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J16" s="32" t="s">
+      <c r="I16" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="35" t="s">
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:13" collapsed="1">
+      <c r="A17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="29" t="s">
+      <c r="B17" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="32" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J17" s="32" t="s">
+      <c r="I17" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="35" t="s">
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:13" collapsed="1">
+      <c r="A18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="29" t="s">
+      <c r="B18" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="32" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J18" s="32" t="s">
+      <c r="I18" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="19" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="35" t="s">
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:13" collapsed="1">
+      <c r="A19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="29" t="s">
+      <c r="B19" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="32" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J19" s="32" t="s">
+      <c r="I19" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="35" t="s">
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" collapsed="1">
+      <c r="A20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" s="29" t="s">
+      <c r="B20" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="32" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J20" s="32" t="s">
+      <c r="I20" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="35" t="s">
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:13" collapsed="1">
+      <c r="A21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" s="29" t="s">
+      <c r="B21" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="32" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="K21" s="31" t="s">
+      <c r="I21" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="35" t="s">
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:13" collapsed="1">
+      <c r="A22" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="29" t="s">
+      <c r="B22" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="32" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="I22" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="K22" s="31" t="s">
+      <c r="I22" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="L22" s="30"/>
-    </row>
-    <row r="23" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="35" t="s">
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:13" collapsed="1">
+      <c r="A23" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="29" t="s">
+      <c r="B23" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="32" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="I23" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J23" s="32" t="s">
+      <c r="I23" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L23" s="30"/>
-    </row>
-    <row r="24" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="35" t="s">
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:13" collapsed="1">
+      <c r="A24" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="29" t="s">
+      <c r="B24" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="32" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="I24" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J24" s="32" t="s">
+      <c r="I24" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="35" t="s">
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:13" collapsed="1">
+      <c r="A25" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="32" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="I25" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25" s="31" t="s">
+      <c r="I25" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="35" t="s">
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="1:13" collapsed="1">
+      <c r="A26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" s="29" t="s">
+      <c r="B26" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="32" t="s">
+      <c r="E26" s="17"/>
+      <c r="F26" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="I26" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="K26" s="31" t="s">
+      <c r="I26" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L26" s="30"/>
-    </row>
-    <row r="27" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="35" t="s">
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="1:13" collapsed="1">
+      <c r="A27" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="29" t="s">
+      <c r="B27" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="32" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J27" s="32" t="s">
+      <c r="I27" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K27" s="31" t="s">
+      <c r="K27" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="35" t="s">
+    <row r="28" spans="1:13" collapsed="1">
+      <c r="A28" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C28" s="29" t="s">
+      <c r="B28" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="32" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="I28" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J28" s="32" t="s">
+      <c r="I28" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L28" s="30" t="s">
+      <c r="L28" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="M28" s="33" t="s">
+      <c r="M28" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:13" collapsed="1">
+      <c r="A29" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C29" s="29" t="s">
+      <c r="B29" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="32" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="I29" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J29" s="32" t="s">
+      <c r="I29" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J29" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="L29" s="30" t="s">
+      <c r="L29" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="M29" s="33" t="s">
+      <c r="M29" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="35" t="s">
+    <row r="30" spans="1:13" collapsed="1">
+      <c r="A30" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C30" s="29" t="s">
+      <c r="B30" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="32" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="I30" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J30" s="32" t="s">
+      <c r="I30" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K30" s="31" t="s">
+      <c r="K30" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="L30" s="30" t="s">
+      <c r="L30" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="M30" s="33" t="s">
+      <c r="M30" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="31" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="35" t="s">
+    <row r="31" spans="1:13" collapsed="1">
+      <c r="A31" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C31" s="29" t="s">
+      <c r="B31" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="32" t="s">
+      <c r="E31" s="17"/>
+      <c r="F31" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="I31" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J31" s="32" t="s">
+      <c r="I31" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J31" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="L31" s="30" t="s">
+      <c r="L31" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="M31" s="33" t="s">
+      <c r="M31" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="35" t="s">
+    <row r="32" spans="1:13" collapsed="1">
+      <c r="A32" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" s="29" t="s">
+      <c r="B32" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="32" t="s">
+      <c r="E32" s="17"/>
+      <c r="F32" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="I32" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J32" s="32" t="s">
+      <c r="I32" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J32" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="31" t="s">
+      <c r="K32" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L32" s="30" t="s">
+      <c r="L32" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="M32" s="33" t="s">
+      <c r="M32" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="35" t="s">
+    <row r="33" spans="1:13" collapsed="1">
+      <c r="A33" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C33" s="29" t="s">
+      <c r="B33" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="32" t="s">
+      <c r="E33" s="17"/>
+      <c r="F33" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="I33" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J33" s="32" t="s">
+      <c r="I33" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J33" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K33" s="31" t="s">
+      <c r="K33" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L33" s="30" t="s">
+      <c r="L33" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="M33" s="33" t="s">
+      <c r="M33" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="34" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="35" t="s">
+    <row r="34" spans="1:13" collapsed="1">
+      <c r="A34" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C34" s="29" t="s">
+      <c r="B34" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="32" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="I34" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J34" s="32" t="s">
+      <c r="I34" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J34" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K34" s="31" t="s">
+      <c r="K34" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L34" s="30" t="s">
+      <c r="L34" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="M34" s="33" t="s">
+      <c r="M34" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="35" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="35" t="s">
+    <row r="35" spans="1:13" collapsed="1">
+      <c r="A35" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C35" s="29" t="s">
+      <c r="B35" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="32" t="s">
+      <c r="E35" s="17"/>
+      <c r="F35" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="I35" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J35" s="32" t="s">
+      <c r="I35" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K35" s="31" t="s">
+      <c r="K35" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L35" s="30" t="s">
+      <c r="L35" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="M35" s="33" t="s">
+      <c r="M35" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="35" t="s">
+    <row r="36" spans="1:13" collapsed="1">
+      <c r="A36" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="29" t="s">
+      <c r="B36" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="32" t="s">
+      <c r="E36" s="17"/>
+      <c r="F36" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J36" s="32" t="s">
+      <c r="I36" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J36" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K36" s="31" t="s">
+      <c r="K36" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L36" s="30" t="s">
+      <c r="L36" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="M36" s="33" t="s">
+      <c r="M36" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="37" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="35" t="s">
+    <row r="37" spans="1:13" collapsed="1">
+      <c r="A37" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="29" t="s">
+      <c r="B37" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="32" t="s">
+      <c r="E37" s="17"/>
+      <c r="F37" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="I37" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J37" s="32" t="s">
+      <c r="I37" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J37" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K37" s="31" t="s">
+      <c r="K37" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="L37" s="30" t="s">
+      <c r="L37" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="M37" s="33" t="s">
+      <c r="M37" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="35" t="s">
+    <row r="38" spans="1:13" collapsed="1">
+      <c r="A38" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" s="29" t="s">
+      <c r="B38" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="32" t="s">
+      <c r="E38" s="17"/>
+      <c r="F38" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="I38" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J38" s="32" t="s">
+      <c r="I38" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J38" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K38" s="31" t="s">
+      <c r="K38" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="L38" s="30" t="s">
+      <c r="L38" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="M38" s="33" t="s">
+      <c r="M38" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="39" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="35" t="s">
+    <row r="39" spans="1:13" collapsed="1">
+      <c r="A39" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" s="29" t="s">
+      <c r="B39" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="32" t="s">
+      <c r="E39" s="17"/>
+      <c r="F39" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="I39" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J39" s="32" t="s">
+      <c r="I39" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J39" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K39" s="31" t="s">
+      <c r="K39" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L39" s="30" t="s">
+      <c r="L39" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="M39" s="33" t="s">
+      <c r="M39" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="35" t="s">
+    <row r="40" spans="1:13" collapsed="1">
+      <c r="A40" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C40" s="29" t="s">
+      <c r="B40" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="32" t="s">
+      <c r="E40" s="17"/>
+      <c r="F40" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="I40" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J40" s="32" t="s">
+      <c r="I40" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J40" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K40" s="31" t="s">
+      <c r="K40" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L40" s="30" t="s">
+      <c r="L40" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="M40" s="33" t="s">
+      <c r="M40" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="35" t="s">
+    <row r="41" spans="1:13" collapsed="1">
+      <c r="A41" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C41" s="29" t="s">
+      <c r="B41" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="32" t="s">
+      <c r="E41" s="17"/>
+      <c r="F41" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="I41" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J41" s="32" t="s">
+      <c r="I41" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J41" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K41" s="31" t="s">
+      <c r="K41" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L41" s="30" t="s">
+      <c r="L41" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="M41" s="33" t="s">
+      <c r="M41" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="42" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="35" t="s">
+    <row r="42" spans="1:13" collapsed="1">
+      <c r="A42" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C42" s="29" t="s">
+      <c r="B42" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="32" t="s">
+      <c r="E42" s="17"/>
+      <c r="F42" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="I42" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J42" s="32" t="s">
+      <c r="I42" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J42" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K42" s="31" t="s">
+      <c r="K42" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L42" s="30" t="s">
+      <c r="L42" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="M42" s="33" t="s">
+      <c r="M42" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="35" t="s">
+    <row r="43" spans="1:13" collapsed="1">
+      <c r="A43" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C43" s="29" t="s">
+      <c r="B43" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="32" t="s">
+      <c r="E43" s="17"/>
+      <c r="F43" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="I43" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J43" s="32" t="s">
+      <c r="I43" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J43" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K43" s="31" t="s">
+      <c r="K43" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L43" s="30" t="s">
+      <c r="L43" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="M43" s="33" t="s">
+      <c r="M43" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="35" t="s">
+    <row r="44" spans="1:13" collapsed="1">
+      <c r="A44" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C44" s="29" t="s">
+      <c r="B44" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="32" t="s">
+      <c r="E44" s="17"/>
+      <c r="F44" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="I44" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J44" s="32" t="s">
+      <c r="I44" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J44" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K44" s="31" t="s">
+      <c r="K44" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L44" s="30" t="s">
+      <c r="L44" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="M44" s="33" t="s">
+      <c r="M44" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="35" t="s">
+    <row r="45" spans="1:13" collapsed="1">
+      <c r="A45" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C45" s="29" t="s">
+      <c r="B45" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="32" t="s">
+      <c r="E45" s="17"/>
+      <c r="F45" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="I45" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J45" s="32" t="s">
+      <c r="I45" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J45" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K45" s="31" t="s">
+      <c r="K45" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L45" s="30" t="s">
+      <c r="L45" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="M45" s="33" t="s">
+      <c r="M45" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="35" t="s">
+    <row r="46" spans="1:13" collapsed="1">
+      <c r="A46" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C46" s="29" t="s">
+      <c r="B46" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="32" t="s">
+      <c r="E46" s="17"/>
+      <c r="F46" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I46" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J46" s="32" t="s">
+      <c r="I46" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J46" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K46" s="31" t="s">
+      <c r="K46" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L46" s="30" t="s">
+      <c r="L46" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="M46" s="33" t="s">
+      <c r="M46" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="35" t="s">
+    <row r="47" spans="1:13" collapsed="1">
+      <c r="A47" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="29" t="s">
+      <c r="B47" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="32" t="s">
+      <c r="E47" s="17"/>
+      <c r="F47" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="I47" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J47" s="32" t="s">
+      <c r="I47" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J47" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K47" s="31" t="s">
+      <c r="K47" s="18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:13" collapsed="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:13" collapsed="1"/>
   </sheetData>
   <autoFilter ref="A1:S1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="170628_기대효과_경기천년 기획사업 추진계획(안)_조병택.pdf"/>
     <hyperlink ref="C3" r:id="rId2" display="170810_기대효과_경기정명천년 기념사업 기대효과 연구 추진계획(안)_이지희.hwp"/>
@@ -3102,1131 +3190,1245 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="103.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="13" customWidth="1"/>
-    <col min="3" max="4" width="23.21875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="74.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="11" width="17.88671875" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" customWidth="1"/>
-    <col min="15" max="17" width="18" customWidth="1"/>
-    <col min="18" max="18" width="34" style="12" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" style="15" customWidth="1"/>
-    <col min="20" max="20" width="21.33203125" style="13" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="34" customWidth="1"/>
+    <col min="1" max="1" width="103.5703125" style="30" customWidth="1"/>
+    <col min="2" max="3" width="23.28515625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="74.28515625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="30" customWidth="1"/>
+    <col min="6" max="9" width="20.28515625" style="32" customWidth="1"/>
+    <col min="10" max="11" width="16.42578125" style="32" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" style="30" customWidth="1"/>
+    <col min="13" max="15" width="18" style="30" customWidth="1"/>
+    <col min="16" max="16" width="34" style="32" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="32" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" style="32" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="34" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:19" s="11" customFormat="1">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="F1" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="G1" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="H1" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="I1" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="J1" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="K1" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="L1" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="M1" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="N1" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="O1" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="P1" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="R1" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="S1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:19" collapsed="1">
+      <c r="A2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="F2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" collapsed="1">
+      <c r="A3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="F3" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="J3" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N2" s="12" t="s">
+      <c r="K3" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="M3" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="N3" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="O3" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="P3" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="Q3" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="R3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="24" t="s">
+      <c r="S3" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" collapsed="1">
+      <c r="A4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="F4" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N3" s="12" t="s">
+      <c r="K4" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="M4" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="N4" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="O4" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="P4" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="Q4" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="R4" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="U3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="24" t="s">
+      <c r="S4" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" collapsed="1">
+      <c r="A5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="F5" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J5" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="K5" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="M5" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="N5" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="O5" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="P5" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="Q5" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="R5" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="U4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="24" t="s">
+      <c r="S5" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" collapsed="1">
+      <c r="A6" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="F6" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="K6" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="M6" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="N6" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="O6" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="P6" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="Q6" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="R6" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="U5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="S6" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" collapsed="1">
+      <c r="A7" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="F6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="24" t="s">
+      <c r="H7" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="S7" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" collapsed="1">
+      <c r="A8" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="F8" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J8" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N6" s="12" t="s">
+      <c r="K8" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="M8" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="N8" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="O8" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="P8" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="Q8" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="R8" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="U6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="S8" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" collapsed="1">
+      <c r="A9" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G9" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="F7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="24" t="s">
+      <c r="H9" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" collapsed="1">
+      <c r="A10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="F10" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J10" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N7" s="12" t="s">
+      <c r="K10" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="M10" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="N10" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="O10" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="P10" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="Q10" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="R10" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="U7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="S10" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" collapsed="1">
+      <c r="A11" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="F8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="H11" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" collapsed="1">
+      <c r="A12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="F12" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J12" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N8" s="12" t="s">
+      <c r="K12" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="M12" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="N12" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="O12" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="P12" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="Q12" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="R12" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="U8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="S12" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" collapsed="1">
+      <c r="A13" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="F9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="24" t="s">
+      <c r="H13" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="S13" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" collapsed="1">
+      <c r="A14" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="F14" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="J14" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N9" s="12" t="s">
+      <c r="K14" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="M14" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="N14" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="O14" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="P14" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="Q14" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="T9" s="16" t="s">
+      <c r="R14" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="U9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="S14" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" collapsed="1">
+      <c r="A15" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="F10" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="24" t="s">
+      <c r="H15" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="S15" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" collapsed="1">
+      <c r="A16" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="F16" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="J16" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N10" s="12" t="s">
+      <c r="K16" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="M16" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="N16" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="O16" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="P16" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="Q16" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="R16" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="U10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="S16" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" collapsed="1">
+      <c r="A17" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="F17" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J17" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="M11" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N11" s="12" t="s">
+      <c r="K17" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="M17" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="N17" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="O17" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="P17" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="S11" s="15" t="s">
+      <c r="Q17" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="T11" s="16" t="s">
+      <c r="R17" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="U11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="E12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="S17" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" collapsed="1">
+      <c r="A18" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="F18" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J18" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N12" s="12" t="s">
+      <c r="K18" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L18" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="M18" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="N18" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="O18" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="P18" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="S12" s="15" t="s">
+      <c r="Q18" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="R18" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="U12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="S18" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" collapsed="1">
+      <c r="A19" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G19" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="F13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="24" t="s">
+      <c r="H19" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="N19" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q19" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="S19" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" collapsed="1">
+      <c r="A20" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="F20" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J20" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="M13" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N13" s="12" t="s">
+      <c r="K20" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="M20" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="N20" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="O20" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="P20" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="S13" s="15" t="s">
+      <c r="Q20" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="T13" s="16" t="s">
+      <c r="R20" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="U13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="E14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="S14" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="U14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="S15" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="U15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="E16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="S16" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="T16" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="U16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E17" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="S17" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="U17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="E18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="S18" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="T18" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="U18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="S19" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="T19" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="U19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="E20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="R20" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="S20" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="T20" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="S20" s="30" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA1"/>
+  <autoFilter ref="A1:S1">
+    <filterColumn colId="5"/>
+    <filterColumn colId="6"/>
+    <filterColumn colId="7"/>
+    <filterColumn colId="8"/>
+    <sortState ref="A2:U20">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 F2:I1048576">
       <formula1>"사진류, 그림류, 영상류, 음성류"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" display="171214_기대효과_[결과보고서 삽입사진] DMZ 1차 행사(경기대) (2)_티팟.jpg"/>
-    <hyperlink ref="L3" r:id="rId2" display="171214_기대효과_[결과보고서 삽입사진] DMZ 1차 행사(경기대)_티팟.JPG"/>
-    <hyperlink ref="L4" r:id="rId3" display="171214_기대효과_[결과보고서 삽입사진] 경기천년기자단 발대식(1)_이슈팩커.JPG"/>
-    <hyperlink ref="L5" r:id="rId4" display="171214_기대효과_[결과보고서 삽입사진] 경기천년기자단 발대식(2)_이슈팩커.JPG"/>
-    <hyperlink ref="L6" r:id="rId5" display="171214_기대효과_[결과보고서 삽입사진] 경기천년플랫폼시민워크숍(과천) (16)_티팟.jpg"/>
-    <hyperlink ref="L7" r:id="rId6" display="171214_기대효과_[결과보고서 삽입사진] 경기천년플랫폼시민워크숍(과천) (44)_티팟.jpg"/>
-    <hyperlink ref="L8" r:id="rId7" display="171214_기대효과_[결과보고서 삽입사진] 경기천년플랫폼시민워크숍(과천) (45)_티팟.jpg"/>
-    <hyperlink ref="L9" r:id="rId8" display="171214_기대효과_[결과보고서 삽입사진] 경기천년플랫폼시민워크숍(과천) (64)_티팟.jpg"/>
-    <hyperlink ref="L10" r:id="rId9" display="171214_기대효과_[결과보고서 삽입사진] 경기천년플랫폼시민워크숍(과천) (84)_티팟.jpg"/>
-    <hyperlink ref="L11" r:id="rId10" display="171214_기대효과_[결과보고서 삽입사진] 경기천년플랫폼캠퍼스투어(한양대학교에리카캠퍼스) (26)_티팟.JPG"/>
-    <hyperlink ref="L12" r:id="rId11" display="171214_기대효과_[결과보고서 삽입사진] 경기천년플랫폼캠퍼스투어(한양대학교에리카캠퍼스) (38)_티팟.JPG"/>
-    <hyperlink ref="L13" r:id="rId12" display="171214_기대효과_[결과보고서 삽입사진] 경기천년플랫폼팝업투어(동탄항공사진) (1)_티팟.jpg"/>
-    <hyperlink ref="L14" r:id="rId13" display="171214_기대효과_[결과보고서 삽입사진] 과정아카이브 중간보고회_기억하는용기.jpg"/>
-    <hyperlink ref="L15" r:id="rId14" display="171214_기대효과_[결과보고서 삽입사진] 슬로건 공모전 시상식_고아라.jpg"/>
-    <hyperlink ref="L16" r:id="rId15" display="171214_기대효과_[결과보고서 삽입사진] 슬로건 앰블럼 개발 워크샵_고아라.jpg"/>
-    <hyperlink ref="L17" r:id="rId16" display="171214_기대효과_[결과보고서 삽입사진] 팝업 동탄 센트럴파크 (71)_티팟.jpg"/>
-    <hyperlink ref="L18" r:id="rId17" display="171214_기대효과_[결과보고서 삽입사진] 팝업 동탄 센트럴파크 (78)_티팟.jpg"/>
-    <hyperlink ref="L19" r:id="rId18" display="171214_기대효과_[결과보고서 삽입사진] 팝업 동탄 센트럴파크 (84)_티팟.jpg"/>
-    <hyperlink ref="L20" r:id="rId19" display="171214_기대효과_[결과보고서 삽입사진] 팝업 어린이박물관 (15)_티팟.jpg"/>
+    <hyperlink ref="J2" r:id="rId1" display="171214_기대효과_[결과보고서 삽입사진] DMZ 1차 행사(경기대) (2)_티팟.jpg"/>
+    <hyperlink ref="J3" r:id="rId2" display="171214_기대효과_[결과보고서 삽입사진] DMZ 1차 행사(경기대)_티팟.JPG"/>
+    <hyperlink ref="J4" r:id="rId3" display="171214_기대효과_[결과보고서 삽입사진] 경기천년기자단 발대식(1)_이슈팩커.JPG"/>
+    <hyperlink ref="J5" r:id="rId4" display="171214_기대효과_[결과보고서 삽입사진] 경기천년기자단 발대식(2)_이슈팩커.JPG"/>
+    <hyperlink ref="J6" r:id="rId5" display="171214_기대효과_[결과보고서 삽입사진] 경기천년플랫폼시민워크숍(과천) (16)_티팟.jpg"/>
+    <hyperlink ref="J7" r:id="rId6" display="171214_기대효과_[결과보고서 삽입사진] 경기천년플랫폼시민워크숍(과천) (44)_티팟.jpg"/>
+    <hyperlink ref="J8" r:id="rId7" display="171214_기대효과_[결과보고서 삽입사진] 경기천년플랫폼시민워크숍(과천) (45)_티팟.jpg"/>
+    <hyperlink ref="J9" r:id="rId8" display="171214_기대효과_[결과보고서 삽입사진] 경기천년플랫폼시민워크숍(과천) (64)_티팟.jpg"/>
+    <hyperlink ref="J10" r:id="rId9" display="171214_기대효과_[결과보고서 삽입사진] 경기천년플랫폼시민워크숍(과천) (84)_티팟.jpg"/>
+    <hyperlink ref="J11" r:id="rId10" display="171214_기대효과_[결과보고서 삽입사진] 경기천년플랫폼캠퍼스투어(한양대학교에리카캠퍼스) (26)_티팟.JPG"/>
+    <hyperlink ref="J12" r:id="rId11" display="171214_기대효과_[결과보고서 삽입사진] 경기천년플랫폼캠퍼스투어(한양대학교에리카캠퍼스) (38)_티팟.JPG"/>
+    <hyperlink ref="J13" r:id="rId12" display="171214_기대효과_[결과보고서 삽입사진] 경기천년플랫폼팝업투어(동탄항공사진) (1)_티팟.jpg"/>
+    <hyperlink ref="J14" r:id="rId13" display="171214_기대효과_[결과보고서 삽입사진] 과정아카이브 중간보고회_기억하는용기.jpg"/>
+    <hyperlink ref="J15" r:id="rId14" display="171214_기대효과_[결과보고서 삽입사진] 슬로건 공모전 시상식_고아라.jpg"/>
+    <hyperlink ref="J16" r:id="rId15" display="171214_기대효과_[결과보고서 삽입사진] 슬로건 앰블럼 개발 워크샵_고아라.jpg"/>
+    <hyperlink ref="J17" r:id="rId16" display="171214_기대효과_[결과보고서 삽입사진] 팝업 동탄 센트럴파크 (71)_티팟.jpg"/>
+    <hyperlink ref="J18" r:id="rId17" display="171214_기대효과_[결과보고서 삽입사진] 팝업 동탄 센트럴파크 (78)_티팟.jpg"/>
+    <hyperlink ref="J19" r:id="rId18" display="171214_기대효과_[결과보고서 삽입사진] 팝업 동탄 센트럴파크 (84)_티팟.jpg"/>
+    <hyperlink ref="J20" r:id="rId19" display="171214_기대효과_[결과보고서 삽입사진] 팝업 어린이박물관 (15)_티팟.jpg"/>
     <hyperlink ref="A2" r:id="rId20"/>
     <hyperlink ref="A3" r:id="rId21"/>
     <hyperlink ref="A4" r:id="rId22"/>
@@ -4246,7 +4448,7 @@
     <hyperlink ref="A18" r:id="rId36"/>
     <hyperlink ref="A19" r:id="rId37"/>
     <hyperlink ref="A20" r:id="rId38"/>
-    <hyperlink ref="T2:T20" r:id="rId39" display="05_연구 및 집필"/>
+    <hyperlink ref="R2:R20" r:id="rId39" display="05_연구 및 집필"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
